--- a/presentation/grafiken.xlsx
+++ b/presentation/grafiken.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="8160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13920" windowHeight="8160"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Zeitanteil</t>
   </si>
@@ -61,13 +61,16 @@
   <si>
     <t>Amdahls law</t>
   </si>
+  <si>
+    <t>vi ho</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -101,7 +104,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -505,7 +508,496 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Speedup</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="34925">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Tabelle1!$I$3,Tabelle1!$I$4,Tabelle1!$I$5,Tabelle1!$I$6,Tabelle1!$I$8,Tabelle1!$I$10,Tabelle1!$I$11,Tabelle1!$I$14,Tabelle1!$I$18)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Tabelle1!$N$3,Tabelle1!$N$4,Tabelle1!$N$5,Tabelle1!$N$6,Tabelle1!$N$8,Tabelle1!$N$10,Tabelle1!$N$11,Tabelle1!$N$14,Tabelle1!$N$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4858687041006275</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7547597591564736</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8894976745623384</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1585158773586572</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.269572834850262</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0898371010411041</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1480284421460891</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5063824554211926</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Optimaler Speedup nach Amdahl</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="3175" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$O$3:$O$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.480101137371808</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7620958832785452</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.94763108752175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0789709190515437</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1768351622008599</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2525754476968598</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3129321566897372</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3621600274725276</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4030772241941132</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4376244499195763</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4671817904558742</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.4927575137580269</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.515105385556736</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.5348002031934986</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.552287935524082</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="435021000"/>
+        <c:axId val="435025704"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="435021000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="16"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="435025704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="435025704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.6"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="435021000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1047,6 +1539,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1074,6 +2082,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1347,8 +2385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:N18"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1458,7 +2496,22 @@
       <c r="I5">
         <v>3</v>
       </c>
-      <c r="N5" s="1"/>
+      <c r="J5">
+        <v>7.0115999999999998E-2</v>
+      </c>
+      <c r="K5">
+        <v>0.14602000000000001</v>
+      </c>
+      <c r="L5">
+        <v>0.13190099999999999</v>
+      </c>
+      <c r="M5">
+        <v>0.34844199999999997</v>
+      </c>
+      <c r="N5" s="1">
+        <f>M3/M5</f>
+        <v>1.7547597591564736</v>
+      </c>
       <c r="O5" s="1">
         <f>1/(J21+1/I5*(1-J21))</f>
         <v>1.7620958832785452</v>
@@ -1571,11 +2624,22 @@
       <c r="I11">
         <v>9</v>
       </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="1"/>
+      <c r="J11" s="2">
+        <v>7.8631999999999994E-2</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.16467300000000001</v>
+      </c>
+      <c r="L11" s="2">
+        <v>4.9140000000000003E-2</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.292574</v>
+      </c>
+      <c r="N11" s="1">
+        <f>M3/M11</f>
+        <v>2.0898371010411041</v>
+      </c>
       <c r="O11" s="1">
         <f>1/(J21+1/I11*(1-J21))</f>
         <v>2.3621600274725276</v>
@@ -1613,11 +2677,22 @@
       <c r="I14">
         <v>12</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="1"/>
+      <c r="J14" s="2">
+        <v>7.9884999999999998E-2</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.16631299999999999</v>
+      </c>
+      <c r="L14" s="2">
+        <v>3.7344000000000002E-2</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0.28464800000000001</v>
+      </c>
+      <c r="N14" s="1">
+        <f>M3/M14</f>
+        <v>2.1480284421460891</v>
+      </c>
       <c r="O14" s="1">
         <f>1/(J21+1/I14*(1-J21))</f>
         <v>2.4671817904558742</v>
@@ -1631,7 +2706,9 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="1"/>
+      <c r="N15" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="O15" s="1">
         <f>1/(J21+1/I15*(1-J21))</f>
         <v>2.4927575137580269</v>

--- a/presentation/grafiken.xlsx
+++ b/presentation/grafiken.xlsx
@@ -2,29 +2,32 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tobias\ownCloud\parallella-hauptseminar\presentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13920" windowHeight="8160"/>
+    <workbookView xWindow="0" yWindow="-465" windowWidth="19200" windowHeight="8700"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>Zeitanteil</t>
   </si>
@@ -63,21 +66,89 @@
   </si>
   <si>
     <t>vi ho</t>
+  </si>
+  <si>
+    <t>7 Messungen gemittelt</t>
+  </si>
+  <si>
+    <t>zurückzuführen auf fehlerhafte Programmausführung</t>
+  </si>
+  <si>
+    <t>speedup Berechnung</t>
+  </si>
+  <si>
+    <t>Speedup gesamt</t>
+  </si>
+  <si>
+    <t>Serial part:</t>
+  </si>
+  <si>
+    <t>GPU-Messungen(Lese- und Schreibvorgänge vernachlässigbar)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 Durchläufe </t>
+  </si>
+  <si>
+    <t>Zeit/s</t>
+  </si>
+  <si>
+    <t>500 Durchläufe</t>
+  </si>
+  <si>
+    <t>1 Durchlauf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zeit/Bild </t>
+  </si>
+  <si>
+    <t>Dauer/TDP[ms/W]</t>
+  </si>
+  <si>
+    <t>GPU</t>
+  </si>
+  <si>
+    <t>Dauer/Chip area</t>
+  </si>
+  <si>
+    <t>Parallella</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -98,15 +169,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -406,16 +501,16 @@
             <c:numRef>
               <c:f>Tabelle1!$C$3:$C$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7.0999999999999994E-2</c:v>
+                  <c:v>7.0019999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14799999999999999</c:v>
+                  <c:v>0.14551</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4E-2</c:v>
+                  <c:v>0.39352999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -508,496 +603,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Speedup</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="34925">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>(Tabelle1!$I$3,Tabelle1!$I$4,Tabelle1!$I$5,Tabelle1!$I$6,Tabelle1!$I$8,Tabelle1!$I$10,Tabelle1!$I$11,Tabelle1!$I$14,Tabelle1!$I$18)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>(Tabelle1!$N$3,Tabelle1!$N$4,Tabelle1!$N$5,Tabelle1!$N$6,Tabelle1!$N$8,Tabelle1!$N$10,Tabelle1!$N$11,Tabelle1!$N$14,Tabelle1!$N$18)</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.4858687041006275</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7547597591564736</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.8894976745623384</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.1585158773586572</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.269572834850262</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.0898371010411041</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.1480284421460891</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.5063824554211926</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Optimaler Speedup nach Amdahl</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="3175" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Tabelle1!$O$3:$O$18</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.480101137371808</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7620958832785452</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.94763108752175</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.0789709190515437</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.1768351622008599</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.2525754476968598</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.3129321566897372</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.3621600274725276</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.4030772241941132</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.4376244499195763</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.4671817904558742</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.4927575137580269</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.515105385556736</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.5348002031934986</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.552287935524082</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="435021000"/>
-        <c:axId val="435025704"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="435021000"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="16"/>
-          <c:min val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="435025704"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-        <c:minorUnit val="1"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="435025704"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="2.6"/>
-          <c:min val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="435021000"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1539,536 +1145,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2082,36 +1172,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Diagramm 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2163,7 +1223,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2198,7 +1258,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2383,19 +1443,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O21"/>
+  <dimension ref="B2:X21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="U31" sqref="U31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2423,13 +1490,38 @@
       <c r="O2" t="s">
         <v>11</v>
       </c>
+      <c r="Q2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U2" t="s">
+        <v>9</v>
+      </c>
+      <c r="V2" t="s">
+        <v>15</v>
+      </c>
+      <c r="W2" t="s">
+        <v>16</v>
+      </c>
+      <c r="X2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>7.0999999999999994E-2</v>
+      <c r="C3" s="3">
+        <f>S3</f>
+        <v>7.0019999999999999E-2</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -2454,13 +1546,41 @@
         <f>1/(J21+1/I3*(1-J21))</f>
         <v>1</v>
       </c>
+      <c r="Q3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3" s="3">
+        <v>7.0019999999999999E-2</v>
+      </c>
+      <c r="T3" s="3">
+        <v>0.14551</v>
+      </c>
+      <c r="U3" s="3">
+        <v>0.39352999999999999</v>
+      </c>
+      <c r="V3" s="1">
+        <f>U3/U3</f>
+        <v>1</v>
+      </c>
+      <c r="W3" s="1">
+        <f>(S3+T3+U3)/(S3+T3+U3)</f>
+        <v>1</v>
+      </c>
+      <c r="X3" s="1">
+        <f>1/(T20+1/R3*(1-T20))</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4">
-        <v>0.14799999999999999</v>
+      <c r="C4" s="3">
+        <f>T3</f>
+        <v>0.14551</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -2485,13 +1605,38 @@
         <f>1/(J21+1/I4*(1-J21))</f>
         <v>1.480101137371808</v>
       </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4" s="3">
+        <v>6.9870000000000002E-2</v>
+      </c>
+      <c r="T4" s="3">
+        <v>0.14416000000000001</v>
+      </c>
+      <c r="U4" s="3">
+        <v>0.19656000000000001</v>
+      </c>
+      <c r="V4" s="1">
+        <f>U3/U4</f>
+        <v>2.0020858770858769</v>
+      </c>
+      <c r="W4" s="1">
+        <f>(S3+T3+U3)/(S4+T4+U4)</f>
+        <v>1.4833775786063954</v>
+      </c>
+      <c r="X4" s="1">
+        <f>1/(T20+1/R4*(1-T20))</f>
+        <v>1.4772432360324526</v>
+      </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5">
-        <v>2.4E-2</v>
+      <c r="C5" s="3">
+        <f>U3</f>
+        <v>0.39352999999999999</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -2516,8 +1661,32 @@
         <f>1/(J21+1/I5*(1-J21))</f>
         <v>1.7620958832785452</v>
       </c>
+      <c r="R5">
+        <v>3</v>
+      </c>
+      <c r="S5" s="3">
+        <v>7.0209999999999995E-2</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0.14516000000000001</v>
+      </c>
+      <c r="U5" s="3">
+        <v>0.13267000000000001</v>
+      </c>
+      <c r="V5" s="1">
+        <f>U3/U5</f>
+        <v>2.9662320042209993</v>
+      </c>
+      <c r="W5" s="1">
+        <f>(S3+T3+U3)/(S5+T5+U5)</f>
+        <v>1.7499712676703825</v>
+      </c>
+      <c r="X5" s="1">
+        <f>1/(T20+1/R5*(1-T20))</f>
+        <v>1.7567011498673228</v>
+      </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="I6">
         <v>4</v>
       </c>
@@ -2541,8 +1710,32 @@
         <f>1/(J21+1/I6*(1-J21))</f>
         <v>1.94763108752175</v>
       </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="S6" s="3">
+        <v>7.0169999999999996E-2</v>
+      </c>
+      <c r="T6" s="3">
+        <v>0.14416000000000001</v>
+      </c>
+      <c r="U6" s="3">
+        <v>9.9250000000000005E-2</v>
+      </c>
+      <c r="V6" s="1">
+        <f>U3/U6</f>
+        <v>3.9650377833753145</v>
+      </c>
+      <c r="W6" s="1">
+        <f>(S3+T3+U3)/(S6+T6+U6)</f>
+        <v>1.9422794821098281</v>
+      </c>
+      <c r="X6" s="1">
+        <f>1/(T20+1/R6*(1-T20))</f>
+        <v>1.9402221956755463</v>
+      </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="I7">
         <v>5</v>
       </c>
@@ -2555,8 +1748,22 @@
         <f>1/(J21+1/I7*(1-J21))</f>
         <v>2.0789709190515437</v>
       </c>
+      <c r="R7">
+        <v>5</v>
+      </c>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1">
+        <f>1/(T20+1/R7*(1-T20))</f>
+        <v>2.0699710436520342</v>
+      </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
       <c r="I8">
         <v>6</v>
       </c>
@@ -2580,8 +1787,32 @@
         <f>1/(J21+1/I8*(1-J21))</f>
         <v>2.1768351622008599</v>
       </c>
+      <c r="R8">
+        <v>6</v>
+      </c>
+      <c r="S8" s="3">
+        <v>7.0540000000000005E-2</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0.14530000000000001</v>
+      </c>
+      <c r="U8" s="3">
+        <v>6.5949999999999995E-2</v>
+      </c>
+      <c r="V8" s="1">
+        <f>U3/U8</f>
+        <v>5.9670962850644429</v>
+      </c>
+      <c r="W8" s="1">
+        <f>(S3+T3+U3)/(S8+T8+U8)</f>
+        <v>2.1613967848397739</v>
+      </c>
+      <c r="X8" s="1">
+        <f>1/(T20+1/R8*(1-T20))</f>
+        <v>2.1665609381577156</v>
+      </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="I9">
         <v>7</v>
       </c>
@@ -2594,8 +1825,35 @@
         <f>1/(J21+1/I9*(1-J21))</f>
         <v>2.2525754476968598</v>
       </c>
+      <c r="R9">
+        <v>7</v>
+      </c>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1">
+        <f>1/(T20+1/R9*(1-T20))</f>
+        <v>2.24126293212213</v>
+      </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
       <c r="I10">
         <v>8</v>
       </c>
@@ -2619,8 +1877,45 @@
         <f>1/(J21+1/I10*(1-J21))</f>
         <v>2.3129321566897372</v>
       </c>
+      <c r="R10">
+        <v>8</v>
+      </c>
+      <c r="S10" s="3">
+        <v>7.1620000000000003E-2</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0.14785000000000001</v>
+      </c>
+      <c r="U10" s="3">
+        <v>5.033E-2</v>
+      </c>
+      <c r="V10" s="1">
+        <f>U3/U10</f>
+        <v>7.8189946354063178</v>
+      </c>
+      <c r="W10" s="1">
+        <f>(S3+T3+U3)/(S10+T10+U10)</f>
+        <v>2.2574499629355076</v>
+      </c>
+      <c r="X10" s="1">
+        <f>1/(T20+1/R10*(1-T20))</f>
+        <v>2.3007597614471829</v>
+      </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>0.21</v>
+      </c>
+      <c r="D11" s="5">
+        <v>210</v>
+      </c>
+      <c r="E11" s="1">
+        <f>D11/60</f>
+        <v>3.5</v>
+      </c>
       <c r="I11">
         <v>9</v>
       </c>
@@ -2636,16 +1931,53 @@
       <c r="M11" s="2">
         <v>0.292574</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11" s="4">
         <f>M3/M11</f>
         <v>2.0898371010411041</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="4">
         <f>1/(J21+1/I11*(1-J21))</f>
         <v>2.3621600274725276</v>
       </c>
+      <c r="R11">
+        <v>9</v>
+      </c>
+      <c r="S11" s="3">
+        <v>7.016E-2</v>
+      </c>
+      <c r="T11" s="3">
+        <v>0.14596000000000001</v>
+      </c>
+      <c r="U11" s="3">
+        <v>4.3990000000000001E-2</v>
+      </c>
+      <c r="V11" s="1">
+        <f>U3/U11</f>
+        <v>8.9458967947260728</v>
+      </c>
+      <c r="W11" s="1">
+        <f>(S3+T3+U3)/(S11+T11+U11)</f>
+        <v>2.3415478066971662</v>
+      </c>
+      <c r="X11" s="1">
+        <f>1/(T20+1/R11*(1-T20))</f>
+        <v>2.3492649894998503</v>
+      </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="D12" s="5">
+        <v>6.23</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" ref="E12:E13" si="0">D12/60</f>
+        <v>0.10383333333333335</v>
+      </c>
       <c r="I12">
         <v>10</v>
       </c>
@@ -2653,13 +1985,38 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1">
+      <c r="N12" s="4"/>
+      <c r="O12" s="4">
         <f>1/(J21+1/I12*(1-J21))</f>
         <v>2.4030772241941132</v>
       </c>
+      <c r="R12">
+        <v>10</v>
+      </c>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1">
+        <f>1/(T20+1/R12*(1-T20))</f>
+        <v>2.3895669777898094</v>
+      </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>1.1950000000000001</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2.39</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>3.9833333333333339E-2</v>
+      </c>
       <c r="I13">
         <v>11</v>
       </c>
@@ -2667,13 +2024,28 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1">
+      <c r="N13" s="4"/>
+      <c r="O13" s="4">
         <f>1/(J21+1/I13*(1-J21))</f>
         <v>2.4376244499195763</v>
       </c>
+      <c r="P13" t="s">
+        <v>14</v>
+      </c>
+      <c r="R13">
+        <v>11</v>
+      </c>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1">
+        <f>1/(T20+1/R13*(1-T20))</f>
+        <v>2.4235844824841917</v>
+      </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="I14">
         <v>12</v>
       </c>
@@ -2689,16 +2061,49 @@
       <c r="M14" s="2">
         <v>0.28464800000000001</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14" s="4">
         <f>M3/M14</f>
         <v>2.1480284421460891</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="4">
         <f>1/(J21+1/I14*(1-J21))</f>
         <v>2.4671817904558742</v>
       </c>
+      <c r="R14">
+        <v>12</v>
+      </c>
+      <c r="S14" s="3">
+        <v>7.009E-2</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0.14582999999999999</v>
+      </c>
+      <c r="U14" s="3">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="V14" s="1">
+        <f>U3/U14</f>
+        <v>11.961398176291793</v>
+      </c>
+      <c r="W14" s="1">
+        <f>(S3+T3+U3)/(S14+T14+U14)</f>
+        <v>2.4477935857246202</v>
+      </c>
+      <c r="X14" s="1">
+        <f>1/(T20+1/R14*(1-T20))</f>
+        <v>2.4526811392366832</v>
+      </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
       <c r="I15">
         <v>13</v>
       </c>
@@ -2713,8 +2118,31 @@
         <f>1/(J21+1/I15*(1-J21))</f>
         <v>2.4927575137580269</v>
       </c>
+      <c r="R15">
+        <v>13</v>
+      </c>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1">
+        <f>1/(T20+1/R15*(1-T20))</f>
+        <v>2.4778526766434457</v>
+      </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="6">
+        <f>U18+T18+S18</f>
+        <v>0.24485999999999997</v>
+      </c>
+      <c r="E16" s="1">
+        <f>D16/2</f>
+        <v>0.12242999999999998</v>
+      </c>
       <c r="I16">
         <v>14</v>
       </c>
@@ -2727,8 +2155,20 @@
         <f>1/(J21+1/I16*(1-J21))</f>
         <v>2.515105385556736</v>
       </c>
+      <c r="R16">
+        <v>14</v>
+      </c>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1">
+        <f>1/(T20+1/R16*(1-T20))</f>
+        <v>2.4998431522009996</v>
+      </c>
     </row>
-    <row r="17" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:24" x14ac:dyDescent="0.25">
       <c r="I17">
         <v>15</v>
       </c>
@@ -2741,8 +2181,20 @@
         <f>1/(J21+1/I17*(1-J21))</f>
         <v>2.5348002031934986</v>
       </c>
+      <c r="R17">
+        <v>15</v>
+      </c>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1">
+        <f>1/(T20+1/R17*(1-T20))</f>
+        <v>2.5192197392512852</v>
+      </c>
     </row>
-    <row r="18" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:24" x14ac:dyDescent="0.25">
       <c r="I18">
         <v>16</v>
       </c>
@@ -2766,8 +2218,41 @@
         <f>1/(J21+1/I18*(1-J21))</f>
         <v>2.552287935524082</v>
       </c>
+      <c r="R18">
+        <v>16</v>
+      </c>
+      <c r="S18" s="3">
+        <v>7.1639999999999995E-2</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0.14809</v>
+      </c>
+      <c r="U18" s="3">
+        <v>2.513E-2</v>
+      </c>
+      <c r="V18" s="1">
+        <f>U3/U18</f>
+        <v>15.659769200159172</v>
+      </c>
+      <c r="W18" s="1">
+        <f>(S3+T3+U3)/(S18+T18+U18)</f>
+        <v>2.4873805439843175</v>
+      </c>
+      <c r="X18" s="1">
+        <f>1/(T20+1/R18*(1-T20))</f>
+        <v>2.5364223414306575</v>
+      </c>
     </row>
-    <row r="21" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="9:24" x14ac:dyDescent="0.25">
+      <c r="S20" t="s">
+        <v>17</v>
+      </c>
+      <c r="T20">
+        <f>(S3+T3)/(S3+U3+T3)</f>
+        <v>0.35387318162414211</v>
+      </c>
+    </row>
+    <row r="21" spans="9:24" x14ac:dyDescent="0.25">
       <c r="J21">
         <f>(J3+K3)/M3</f>
         <v>0.35125901163171047</v>
@@ -2775,6 +2260,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/presentation/grafiken.xlsx
+++ b/presentation/grafiken.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Zeitanteil</t>
   </si>
@@ -86,24 +86,9 @@
     <t>GPU-Messungen(Lese- und Schreibvorgänge vernachlässigbar)</t>
   </si>
   <si>
-    <t xml:space="preserve">100 Durchläufe </t>
-  </si>
-  <si>
     <t>Zeit/s</t>
   </si>
   <si>
-    <t>500 Durchläufe</t>
-  </si>
-  <si>
-    <t>1 Durchlauf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zeit/Bild </t>
-  </si>
-  <si>
-    <t>Dauer/TDP[ms/W]</t>
-  </si>
-  <si>
     <t>GPU</t>
   </si>
   <si>
@@ -111,6 +96,15 @@
   </si>
   <si>
     <t>Parallella</t>
+  </si>
+  <si>
+    <t>Zeit/Bild [ms]</t>
+  </si>
+  <si>
+    <t>Durchläufe</t>
+  </si>
+  <si>
+    <t>Dauer/TDP[mWs]</t>
   </si>
 </sst>
 </file>
@@ -1443,15 +1437,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:X21"/>
+  <dimension ref="A2:X23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -1462,7 +1457,7 @@
     <col min="23" max="23" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1515,7 +1510,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -1574,7 +1569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -1630,7 +1625,7 @@
         <v>1.4772432360324526</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -1686,7 +1681,7 @@
         <v>1.7567011498673228</v>
       </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="I6">
         <v>4</v>
       </c>
@@ -1735,7 +1730,7 @@
         <v>1.9402221956755463</v>
       </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="I7">
         <v>5</v>
       </c>
@@ -1760,7 +1755,7 @@
         <v>2.0699710436520342</v>
       </c>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -1812,7 +1807,7 @@
         <v>2.1665609381577156</v>
       </c>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="I9">
         <v>7</v>
       </c>
@@ -1838,21 +1833,24 @@
         <v>2.24126293212213</v>
       </c>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I10">
         <v>8</v>
@@ -1902,19 +1900,20 @@
         <v>2.3007597614471829</v>
       </c>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>22</v>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="D11" s="5">
-        <v>210</v>
+        <f>C11/B11*1000</f>
+        <v>200</v>
       </c>
       <c r="E11" s="1">
-        <f>D11/60</f>
-        <v>3.5</v>
+        <f>D11*60</f>
+        <v>12000</v>
       </c>
       <c r="I11">
         <v>9</v>
@@ -1964,19 +1963,20 @@
         <v>2.3492649894998503</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>19</v>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>100</v>
       </c>
       <c r="C12">
-        <v>0.63200000000000001</v>
+        <v>11.7</v>
       </c>
       <c r="D12" s="5">
-        <v>6.23</v>
+        <f>C12/B12*1000</f>
+        <v>117</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" ref="E12:E13" si="0">D12/60</f>
-        <v>0.10383333333333335</v>
+        <f>D12*60</f>
+        <v>7020</v>
       </c>
       <c r="I12">
         <v>10</v>
@@ -2003,20 +2003,12 @@
         <v>2.3895669777898094</v>
       </c>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13">
-        <v>1.1950000000000001</v>
-      </c>
-      <c r="D13" s="5">
-        <v>2.39</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" si="0"/>
-        <v>3.9833333333333339E-2</v>
-      </c>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="1"/>
       <c r="I13">
         <v>11</v>
       </c>
@@ -2045,7 +2037,9 @@
         <v>2.4235844824841917</v>
       </c>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D14" s="5"/>
+      <c r="E14" s="1"/>
       <c r="I14">
         <v>12</v>
       </c>
@@ -2094,16 +2088,9 @@
         <v>2.4526811392366832</v>
       </c>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" t="s">
-        <v>24</v>
-      </c>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D15" s="5"/>
+      <c r="E15" s="1"/>
       <c r="I15">
         <v>13</v>
       </c>
@@ -2131,18 +2118,9 @@
         <v>2.4778526766434457</v>
       </c>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="6">
-        <f>U18+T18+S18</f>
-        <v>0.24485999999999997</v>
-      </c>
-      <c r="E16" s="1">
-        <f>D16/2</f>
-        <v>0.12242999999999998</v>
-      </c>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D16" s="5"/>
+      <c r="E16" s="1"/>
       <c r="I16">
         <v>14</v>
       </c>
@@ -2168,7 +2146,9 @@
         <v>2.4998431522009996</v>
       </c>
     </row>
-    <row r="17" spans="9:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D17" s="5"/>
+      <c r="E17" s="1"/>
       <c r="I17">
         <v>15</v>
       </c>
@@ -2194,7 +2174,22 @@
         <v>2.5192197392512852</v>
       </c>
     </row>
-    <row r="18" spans="9:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
       <c r="I18">
         <v>16</v>
       </c>
@@ -2243,7 +2238,37 @@
         <v>2.5364223414306575</v>
       </c>
     </row>
-    <row r="20" spans="9:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0.255</v>
+      </c>
+      <c r="D19" s="6">
+        <f>C19*1000/B19</f>
+        <v>255</v>
+      </c>
+      <c r="E19" s="1">
+        <f>D19*2</f>
+        <v>510</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>50</v>
+      </c>
+      <c r="C20">
+        <v>12.75</v>
+      </c>
+      <c r="D20" s="6">
+        <f>C20*1000/B20</f>
+        <v>255</v>
+      </c>
+      <c r="E20" s="1">
+        <f>D20*2</f>
+        <v>510</v>
+      </c>
       <c r="S20" t="s">
         <v>17</v>
       </c>
@@ -2252,10 +2277,56 @@
         <v>0.35387318162414211</v>
       </c>
     </row>
-    <row r="21" spans="9:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <v>25.48</v>
+      </c>
+      <c r="D21" s="6">
+        <f t="shared" ref="D21:D22" si="0">C21*1000/B21</f>
+        <v>254.8</v>
+      </c>
+      <c r="E21" s="1">
+        <f>D21*2</f>
+        <v>509.6</v>
+      </c>
       <c r="J21">
         <f>(J3+K3)/M3</f>
         <v>0.35125901163171047</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>150</v>
+      </c>
+      <c r="C22">
+        <v>38.25</v>
+      </c>
+      <c r="D22" s="6">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+      <c r="E22" s="1">
+        <f>D22*2</f>
+        <v>510</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>200</v>
+      </c>
+      <c r="C23">
+        <v>50.85</v>
+      </c>
+      <c r="D23" s="6">
+        <f>C23*1000/B23</f>
+        <v>254.25</v>
+      </c>
+      <c r="E23" s="1">
+        <f>D23*2</f>
+        <v>508.5</v>
       </c>
     </row>
   </sheetData>
